--- a/Documentation/DataModel/BHLImportDataDictionary.xlsx
+++ b/Documentation/DataModel/BHLImportDataDictionary.xlsx
@@ -3090,8 +3090,8 @@
   <dimension ref="A1:J867"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A432" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A437" sqref="A437"/>
+      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G298" sqref="G298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -6070,7 +6070,7 @@
         <v>6</v>
       </c>
       <c r="G127" s="4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H127" s="6"/>
       <c r="I127" s="6" t="s">
@@ -6412,7 +6412,7 @@
         <v>6</v>
       </c>
       <c r="G140" s="4">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="H140" s="6"/>
       <c r="I140" s="6" t="s">
@@ -10035,7 +10035,7 @@
         <v>6</v>
       </c>
       <c r="G298" s="4">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="H298" s="6"/>
       <c r="I298" s="6" t="s">
@@ -10331,7 +10331,7 @@
         <v>6</v>
       </c>
       <c r="G311" s="4">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="H311" s="6"/>
       <c r="I311" s="6" t="s">
@@ -11403,7 +11403,7 @@
         <v>6</v>
       </c>
       <c r="G357" s="4">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="H357" s="6"/>
       <c r="I357" s="6" t="s">
@@ -11950,7 +11950,7 @@
         <v>6</v>
       </c>
       <c r="G380" s="4">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="H380" s="6"/>
       <c r="I380" s="6" t="s">
@@ -11998,7 +11998,7 @@
         <v>6</v>
       </c>
       <c r="G382" s="4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="H382" s="6"/>
       <c r="I382" s="6" t="s">
@@ -13444,7 +13444,7 @@
         <v>6</v>
       </c>
       <c r="G441" s="4">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="H441" s="6"/>
       <c r="I441" s="6" t="s">
@@ -17662,7 +17662,7 @@
         <v>6</v>
       </c>
       <c r="G628" s="4">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="H628" s="6"/>
       <c r="I628" s="6" t="s">
@@ -18348,7 +18348,7 @@
         <v>6</v>
       </c>
       <c r="G657" s="4">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="H657" s="6"/>
       <c r="I657" s="6" t="s">
